--- a/Reference values.xlsx
+++ b/Reference values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp PC\20210306 data PH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f3994c433a3867/Documenten/Machine_Learning/Koemelk-analyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB14400F-BCB9-4421-8692-C522F4CB922F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{AB14400F-BCB9-4421-8692-C522F4CB922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{462C6B9D-D025-4F06-B7B9-0F10FFC1D39F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{1F43EB53-1A8B-4D85-BF42-0D8A7161D4C9}"/>
+    <workbookView xWindow="6225" yWindow="1785" windowWidth="22200" windowHeight="12765" xr2:uid="{1F43EB53-1A8B-4D85-BF42-0D8A7161D4C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,15 +552,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -588,7 +588,7 @@
         <v>5.1890000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -602,7 +602,7 @@
         <v>4.8780000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -616,7 +616,7 @@
         <v>5.2329999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -630,7 +630,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -658,7 +658,7 @@
         <v>5.4320000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -672,7 +672,7 @@
         <v>4.4080000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -686,7 +686,7 @@
         <v>5.141</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -700,7 +700,7 @@
         <v>4.8639999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -714,7 +714,7 @@
         <v>5.085</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -728,7 +728,7 @@
         <v>4.7640000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -742,7 +742,7 @@
         <v>4.6070000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -756,7 +756,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -770,7 +770,7 @@
         <v>5.0129999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -784,7 +784,7 @@
         <v>4.819</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -798,7 +798,7 @@
         <v>5.2439999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -812,7 +812,7 @@
         <v>5.0090000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -826,7 +826,7 @@
         <v>4.9580000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -840,7 +840,7 @@
         <v>4.9939999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -854,7 +854,7 @@
         <v>4.9189999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -868,7 +868,7 @@
         <v>5.2229999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -882,7 +882,7 @@
         <v>4.9880000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -896,7 +896,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -910,7 +910,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -924,7 +924,7 @@
         <v>5.0919999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -938,7 +938,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -952,7 +952,7 @@
         <v>5.1210000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -966,7 +966,7 @@
         <v>4.9109999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -980,7 +980,7 @@
         <v>4.7140000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -994,7 +994,7 @@
         <v>5.202</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>5.0259999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>4.8479999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>5.0090000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>4.9589999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>5.0579999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>5.0060000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>4.9290000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>5.2510000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>5.1609999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>4.867</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>5.0869999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>4.9669999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>5.0259999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>4.9029999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>4.9420000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>4.6150000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>4.0449999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
